--- a/Dossier Client/Interconnection/Plage réseau.xlsx
+++ b/Dossier Client/Interconnection/Plage réseau.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28528"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_906D21B4EB8FF2757D0504D5F7D3BC5D3DED40EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C244FFC-8A69-4241-950F-5648920D2D44}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garde\Fondespierre Ressources Humaines\BWB_ERN_TSSR_LUNEL - Groupe 1 - Documents\Groupe 1\PROJET PRO\Dossier Client\Interconnection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51AC697-EC6B-4442-B8DA-D4E4321F334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE3D7F57-25E8-45DE-B363-E494F61D2891}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,46 +36,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Routeur 1</t>
+  </si>
+  <si>
+    <t>gig0/0</t>
+  </si>
+  <si>
+    <t>Routeur de Béziers</t>
+  </si>
+  <si>
+    <t>gig1/0</t>
+  </si>
+  <si>
+    <t>192.168.140.1</t>
+  </si>
+  <si>
+    <t>192.168.140.0</t>
+  </si>
+  <si>
+    <t>gig2/0</t>
+  </si>
+  <si>
+    <t>192.168.130.1</t>
+  </si>
+  <si>
+    <t>Routeur deLodèves</t>
+  </si>
+  <si>
+    <t>192.168.130.0</t>
+  </si>
+  <si>
+    <t>gig3/0</t>
+  </si>
+  <si>
+    <t>192.168.120.1</t>
+  </si>
+  <si>
+    <t>Routeur de Sète</t>
+  </si>
+  <si>
+    <t>192.168.120.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centre de commandement </t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>Béziers</t>
+  </si>
+  <si>
+    <t>Routeur 2</t>
+  </si>
+  <si>
+    <t>192.168.110.2</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>192.168.2.0</t>
+  </si>
+  <si>
+    <t>Sète</t>
+  </si>
+  <si>
+    <t>Routeur 3</t>
+  </si>
+  <si>
+    <t>192.168.150.1</t>
+  </si>
+  <si>
+    <t>192.168.150.0</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.3.0</t>
+  </si>
+  <si>
+    <t>Lodève</t>
+  </si>
+  <si>
+    <t>Routeur 4</t>
+  </si>
+  <si>
+    <t>192.168.130.2</t>
+  </si>
+  <si>
+    <t>192.168.4.1</t>
+  </si>
+  <si>
+    <t>192.168.4.0</t>
+  </si>
+  <si>
+    <t>Ganges</t>
+  </si>
+  <si>
+    <t>Routeur 5</t>
+  </si>
+  <si>
+    <t>192.168.140.2</t>
+  </si>
+  <si>
+    <t>192.168.150.2</t>
+  </si>
+  <si>
+    <t>192.168.5.1</t>
+  </si>
+  <si>
+    <t>192.168.5.0</t>
+  </si>
+  <si>
+    <t>interf</t>
+  </si>
   <si>
     <t>reseau</t>
   </si>
   <si>
-    <t>10,x</t>
-  </si>
-  <si>
-    <t>192,168,2,x</t>
-  </si>
-  <si>
-    <t>routeur</t>
-  </si>
-  <si>
-    <t>10,1,1,1</t>
-  </si>
-  <si>
-    <t>192,168,2,1</t>
-  </si>
-  <si>
-    <t>routeur Redondant</t>
-  </si>
-  <si>
-    <t>10,1,1,2</t>
-  </si>
-  <si>
-    <t>192,168,2,2</t>
-  </si>
-  <si>
-    <t>switch Lvl 2</t>
-  </si>
-  <si>
-    <t>switch lvl 2</t>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>gig5/0</t>
+  </si>
+  <si>
+    <t>gig4/0</t>
+  </si>
+  <si>
+    <t>Routeur de montpellier</t>
+  </si>
+  <si>
+    <t>Routeur de ganges</t>
+  </si>
+  <si>
+    <t>192.168.110.3</t>
+  </si>
+  <si>
+    <t>192.168.110.4</t>
+  </si>
+  <si>
+    <t>192.168.110.5</t>
+  </si>
+  <si>
+    <t>192.168.120.3</t>
+  </si>
+  <si>
+    <t>192.168.140.4</t>
+  </si>
+  <si>
+    <t>192.168.150.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +212,103 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1A983"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -95,18 +316,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,7 +642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,13 +658,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -161,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -427,244 +950,1103 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36502C5D-7C62-4B85-9DFD-540E62576E3C}">
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="72"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="E4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="H13" s="72"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="22"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="74"/>
+      <c r="I20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="74"/>
+      <c r="I23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="73"/>
+      <c r="I24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="73"/>
+      <c r="I25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="72"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="73"/>
+      <c r="I26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="72"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="72"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="72"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="72"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="72"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="F32" s="69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
+      <c r="G32" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B81C8C69B54B9D40A2C7C00C2616C1B1" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d6877bb72f313209a2b4e1df16d21ee7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ede33703-3414-42be-8052-e7ceb6a5484e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="477ea4036dcd3f8c154563e67aaaf92c" ns2:_="">
-    <xsd:import namespace="ede33703-3414-42be-8052-e7ceb6a5484e"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ede33703-3414-42be-8052-e7ceb6a5484e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D32327E-84D2-4078-B80B-7AE8E10E9A69}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9B22AAC-3F22-4166-9BD6-BD94CB50E875}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48597CB5-D7B1-43BA-89B1-7FC884C17D36}"/>
 </file>